--- a/data/QA Monthly Infographic - Hyperlinks_sari_feltman.xlsx
+++ b/data/QA Monthly Infographic - Hyperlinks_sari_feltman.xlsx
@@ -694,7 +694,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>T-82014</t>
+          <t>T-82013</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -703,16 +703,16 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>809--TCS foods are held cold at 41F or below - Mechanical Equipment/Facilities Related.</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>facilities cleaned grab and go cooler</t>
+          <t>logs filled out daily</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -742,7 +742,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>T-82013</t>
+          <t>T-82008</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -751,16 +751,16 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>logs filled out daily</t>
+          <t>complete logs for Entree</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -790,7 +790,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>T-82010</t>
+          <t>T-82009</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -799,12 +799,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>FLIK 7 - Paper Logs: Warewashing</t>
+          <t>812--When time is observed being used as a public health control: written procedures are available and followed.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>ware washing logs implemented</t>
+          <t>time temp log will be used for breakfast sand</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -838,7 +838,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>T-82008</t>
+          <t>T-82012</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -847,12 +847,12 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
+          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>complete logs for Entree</t>
+          <t>proper cooling technique used</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -886,7 +886,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>T-82007</t>
+          <t>T-82010</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -895,12 +895,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
+          <t>FLIK 7 - Paper Logs: Warewashing</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>cooking cooling logs will be used</t>
+          <t>ware washing logs implemented</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -934,7 +934,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>T-82012</t>
+          <t>T-82007</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -943,12 +943,12 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
+          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>proper cooling technique used</t>
+          <t>cooking cooling logs will be used</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>T-82009</t>
+          <t>T-82014</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>812--When time is observed being used as a public health control: written procedures are available and followed.</t>
+          <t>809--TCS foods are held cold at 41F or below - Mechanical Equipment/Facilities Related.</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>time temp log will be used for breakfast sand</t>
+          <t>facilities cleaned grab and go cooler</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>T-81692</t>
+          <t>T-81690</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Immediately following service today there was a retraining with all staff to review the HACCP monitor SOPs, and it was stressed to hit upload after each batch of temperatures are measured. This will be echoed in preservice meetings, weekly staff meetings, and a daily check in with each staff member when they turn in the paper logs of the day and tablet is reviewed for uploaded information.</t>
+          <t>The holes observed (under three bay sink, by dishwasher entrance, by hand sink near cooler 1, ceiling tile above three bay sink) have had work orders placed to have them repaired/plugged</t>
         </is>
       </c>
       <c r="L12" t="n">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>T-81689</t>
+          <t>T-81692</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1231,12 +1231,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1303--Plumbing is maintained in good repair.</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Work order has been placed with facilities and will be repaired promptly</t>
+          <t>Immediately following service today there was a retraining with all staff to review the HACCP monitor SOPs, and it was stressed to hit upload after each batch of temperatures are measured. This will be echoed in preservice meetings, weekly staff meetings, and a daily check in with each staff member when they turn in the paper logs of the day and tablet is reviewed for uploaded information.</t>
         </is>
       </c>
       <c r="L13" t="n">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>T-81694</t>
+          <t>T-81691</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -1279,12 +1279,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
+          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>A daily check in with each station at the end of service will be reviewing logs performed by the hourly staff by either the DDS or EC to ensure that all sheets have been submitted and are organized/on file to avoid this issue moving forward</t>
+          <t>With peanut butter being available to the entire school coupled with the severity and seriousness of the risk involved with the open container of peanut butter on the deli station, the implementation of a stand alone station for peanut butter is necessary. An email to the client will be sent to inform/explain the change to procedures and a new isolated service area will be utilized, conforming to the company standards</t>
         </is>
       </c>
       <c r="L14" t="n">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>T-81691</t>
+          <t>T-81694</t>
         </is>
       </c>
       <c r="H16" t="inlineStr"/>
@@ -1375,12 +1375,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
+          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>With peanut butter being available to the entire school coupled with the severity and seriousness of the risk involved with the open container of peanut butter on the deli station, the implementation of a stand alone station for peanut butter is necessary. An email to the client will be sent to inform/explain the change to procedures and a new isolated service area will be utilized, conforming to the company standards</t>
+          <t>A daily check in with each station at the end of service will be reviewing logs performed by the hourly staff by either the DDS or EC to ensure that all sheets have been submitted and are organized/on file to avoid this issue moving forward</t>
         </is>
       </c>
       <c r="L16" t="n">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>T-81690</t>
+          <t>T-81689</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
@@ -1423,12 +1423,12 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+          <t>1303--Plumbing is maintained in good repair.</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>The holes observed (under three bay sink, by dishwasher entrance, by hand sink near cooler 1, ceiling tile above three bay sink) have had work orders placed to have them repaired/plugged</t>
+          <t>Work order has been placed with facilities and will be repaired promptly</t>
         </is>
       </c>
       <c r="L17" t="n">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>T-81943</t>
+          <t>T-81951</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>104--The unit has the Compass Group written procedures for responding to a diarrheal or vomiting event.</t>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>T-81946</t>
+          <t>T-81945</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>505--Food is properly stored to protect it from contamination (i.e. stored off the floor, kept covered during storage, properly stored on ice, not located in prohibited areas).</t>
+          <t>402--Food is in wholesome, sound condition and is unadulterated (no spoilage, no contamination with foreign material, intact food packaging). Damaged and/or recalled items are segregated.</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>T-81948</t>
+          <t>T-81943</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -2466,7 +2466,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
+          <t>104--The unit has the Compass Group written procedures for responding to a diarrheal or vomiting event.</t>
         </is>
       </c>
     </row>
@@ -2478,12 +2478,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>53051</t>
+          <t>61138</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>The Logan School</t>
+          <t>Castilleja School</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>T-81942</t>
+          <t>T-81947</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -2518,12 +2518,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>61138</t>
+          <t>53051</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Castilleja School</t>
+          <t>The Logan School</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>T-81944</t>
+          <t>T-81942</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>T-81950</t>
+          <t>T-81944</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>T-81945</t>
+          <t>T-81948</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -2626,7 +2626,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>402--Food is in wholesome, sound condition and is unadulterated (no spoilage, no contamination with foreign material, intact food packaging). Damaged and/or recalled items are segregated.</t>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>T-81951</t>
+          <t>T-81950</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>T-81947</t>
+          <t>T-81946</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>505--Food is properly stored to protect it from contamination (i.e. stored off the floor, kept covered during storage, properly stored on ice, not located in prohibited areas).</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>T-81412</t>
+          <t>T-81411</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>1001--Clean utensils and equipment are properly stored, air-dried, and handled. Clean tableware is properly handled and protected.</t>
+          <t>901-- Food containers holding food/ingredients that are removed from their original packages are labeled to identify contents that are not easily identifiable</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>T-81411</t>
+          <t>T-81412</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>901-- Food containers holding food/ingredients that are removed from their original packages are labeled to identify contents that are not easily identifiable</t>
+          <t>1001--Clean utensils and equipment are properly stored, air-dried, and handled. Clean tableware is properly handled and protected.</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>T-81339</t>
+          <t>T-81342</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
+          <t>FLIK 4A - Paper Logs: TCS Receiving temperatures documented for each delivery</t>
         </is>
       </c>
     </row>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>T-81343</t>
+          <t>T-81332</t>
         </is>
       </c>
       <c r="H19" t="inlineStr"/>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>T-81338</t>
+          <t>T-81337</t>
         </is>
       </c>
       <c r="H20" t="inlineStr"/>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
+          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
         </is>
       </c>
     </row>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>T-81340</t>
+          <t>T-81328</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>FLIK 7 - Paper Logs: Warewashing</t>
+          <t>FLIK 5A - Paper Logs: Refrigeration temperatures are monitored AM and PM daily</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>T-81328</t>
+          <t>T-81339</t>
         </is>
       </c>
       <c r="H23" t="inlineStr"/>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>FLIK 5A - Paper Logs: Refrigeration temperatures are monitored AM and PM daily</t>
+          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>T-81329</t>
+          <t>T-81343</t>
         </is>
       </c>
       <c r="H24" t="inlineStr"/>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>T-81341</t>
+          <t>T-81327</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>100--Person-in-charge is present and is certified by an accredited program and the certificate is current.</t>
+          <t>1300--Pest activity/evidence of pest activity is not observed.</t>
         </is>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>T-81327</t>
+          <t>T-81331</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1300--Pest activity/evidence of pest activity is not observed.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
     </row>
@@ -3377,7 +3377,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>T-81342</t>
+          <t>T-81340</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>FLIK 4A - Paper Logs: TCS Receiving temperatures documented for each delivery</t>
+          <t>FLIK 7 - Paper Logs: Warewashing</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>T-81330</t>
+          <t>T-81333</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -3426,7 +3426,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>FLIK 3A - Paper Logs: Food Production Temperatures</t>
+          <t>FLIK 4B - HACCP Thermometer in place: TCS Receiving Temperatures documented for each delivery</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>T-81332</t>
+          <t>T-81341</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -3466,7 +3466,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>100--Person-in-charge is present and is certified by an accredited program and the certificate is current.</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>T-81337</t>
+          <t>T-81329</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -3546,7 +3546,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
+          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>T-81333</t>
+          <t>T-81338</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>FLIK 4B - HACCP Thermometer in place: TCS Receiving Temperatures documented for each delivery</t>
+          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>T-81331</t>
+          <t>T-81330</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>FLIK 3A - Paper Logs: Food Production Temperatures</t>
         </is>
       </c>
     </row>
